--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/artfynd/A 16408-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/artfynd/A 16408-2019.xlsx", "A 16408-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/kartor/A 16408-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/kartor/A 16408-2019.png", "A 16408-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/klagomål/A 16408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/klagomål/A 16408-2019.docx", "A 16408-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/klagomålsmail/A 16408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/klagomålsmail/A 16408-2019.docx", "A 16408-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/tillsyn/A 16408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/tillsyn/A 16408-2019.docx", "A 16408-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/tillsynsmail/A 16408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESSUNGA/tillsynsmail/A 16408-2019.docx", "A 16408-2019")</f>
         <v/>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43546</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>43445</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43475</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43521</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43529</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43535</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43560</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43597</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43641</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43654</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43676</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43691</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43746</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43769</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43781</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43795</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43909</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43959</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43962</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43964</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43987</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44020</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44053</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44057</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44068</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44068</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44070</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44096</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44130</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44144</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44203</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44203</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44223</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44341</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44616</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44686</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44686</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44802</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44820</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44886</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44886</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44923</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>45033</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
